--- a/Content/ExcelFiles/Giảng Viên.xlsx
+++ b/Content/ExcelFiles/Giảng Viên.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0394547-91AA-4754-9B6E-508024B1A958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9859092E-7A2E-4478-8951-6535884D11D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F804B424-ED2E-4500-B39C-1714A1426A7F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="181">
   <si>
     <t>MaGiangVien</t>
   </si>
@@ -60,527 +60,530 @@
     <t>DienThoai</t>
   </si>
   <si>
+    <t>Dương Thị Hiền</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Dương Thị Hiền Thanh</t>
+  </si>
+  <si>
+    <t>duongthihienthanh@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>Bộ môn Tin học Kinh tế</t>
+  </si>
+  <si>
+    <t>Lê Thanh</t>
+  </si>
+  <si>
+    <t>Huệ</t>
+  </si>
+  <si>
+    <t>Lê Thanh Huệ</t>
+  </si>
+  <si>
+    <t>lethanhhue@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế</t>
+  </si>
+  <si>
+    <t>Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Bình</t>
+  </si>
+  <si>
+    <t>nguyenthebinh@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu</t>
+  </si>
+  <si>
+    <t>Hằng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Hằng</t>
+  </si>
+  <si>
+    <t>nguyenthuhang@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Quang</t>
+  </si>
+  <si>
+    <t>Hiển</t>
+  </si>
+  <si>
+    <t>Phạm Quang Hiển</t>
+  </si>
+  <si>
+    <t>phamquanghien@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Thị</t>
+  </si>
+  <si>
+    <t>Nguyệt</t>
+  </si>
+  <si>
+    <t>Phạm Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>phamthinguyet@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0806-01</t>
+  </si>
+  <si>
+    <t>Võ Thị Thu</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Võ Thị Thu Trang</t>
+  </si>
+  <si>
+    <t>vothithutrang@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Vũ Thị Kim</t>
+  </si>
+  <si>
+    <t>Liên</t>
+  </si>
+  <si>
+    <t>Vũ Thị Kim Liên</t>
+  </si>
+  <si>
+    <t>vuthikimlien@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Hoàng Anh Đức</t>
+  </si>
+  <si>
+    <t>hoanganhduc@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>Bộ môn Khoa học máy tính</t>
+  </si>
+  <si>
+    <t>Lê Văn</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>Lê Văn Ngọc</t>
+  </si>
+  <si>
+    <t>levanngoc@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Lê Hồng</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Lê Hồng Anh</t>
+  </si>
+  <si>
+    <t>lehonganh@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Huy</t>
+  </si>
+  <si>
+    <t>nguyenduyhuy@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Lê Văn Hưng</t>
+  </si>
+  <si>
+    <t>levanghung@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Lộc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Lộc</t>
+  </si>
+  <si>
+    <t>nguyentheloc@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bộ môn Công Nghệ phầm mềm</t>
+  </si>
+  <si>
+    <t>Phạm Văn</t>
+  </si>
+  <si>
+    <t>Đồng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đồng</t>
+  </si>
+  <si>
+    <t>phamvandong@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hữu</t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hữu Phương</t>
+  </si>
+  <si>
+    <t>nguyenthihuuphuong@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hồ Thị Thảo</t>
+  </si>
+  <si>
+    <t>Hồ Thị Thảo Trang</t>
+  </si>
+  <si>
+    <t>hothithaotrang@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Diêm Công</t>
+  </si>
+  <si>
+    <t>Hoàn</t>
+  </si>
+  <si>
+    <t>Diêm Công Hoàn</t>
+  </si>
+  <si>
+    <t>diemconghoan@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0807</t>
+  </si>
+  <si>
+    <t>Bộ môn Mạng máy tính</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu</t>
+  </si>
+  <si>
+    <t>Thúy</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Thúy</t>
+  </si>
+  <si>
+    <t>tranthithuthuy@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Đình</t>
+  </si>
+  <si>
+    <t>Tân</t>
+  </si>
+  <si>
+    <t>Phạm Đình Tân</t>
+  </si>
+  <si>
+    <t>phamdinhtan@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đào Anh</t>
+  </si>
+  <si>
+    <t>Thư</t>
+  </si>
+  <si>
+    <t>Đào Anh Thư</t>
+  </si>
+  <si>
+    <t>daoanhthu@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đào Thị Thu</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>Đào Thị Thu Vân</t>
+  </si>
+  <si>
+    <t>daothithuvan@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>Bộ môn Hệ thống thông tin và tri thức</t>
+  </si>
+  <si>
+    <t>Phạm Đức</t>
+  </si>
+  <si>
+    <t>Hậu</t>
+  </si>
+  <si>
+    <t>Phạm Đức Hậu</t>
+  </si>
+  <si>
+    <t>phamduchau@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bùi Thị Vân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Vân Anh</t>
+  </si>
+  <si>
+    <t>buithivananh@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Vũ Lan</t>
+  </si>
+  <si>
+    <t>Vũ Lan Phương</t>
+  </si>
+  <si>
+    <t>vulanphuong@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Dương Chí</t>
+  </si>
+  <si>
+    <t>Thiện</t>
+  </si>
+  <si>
+    <t>Dương Chí Thiện</t>
+  </si>
+  <si>
+    <t>duongchithien@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hải</t>
+  </si>
+  <si>
+    <t>Yến</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>nguyenthihaiyen@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>Bộ môn Tin học Địa Chất</t>
+  </si>
+  <si>
+    <t>Trương Xuân</t>
+  </si>
+  <si>
+    <t>Trương Xuân Bình</t>
+  </si>
+  <si>
+    <t>truõnguanbinh@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm An</t>
+  </si>
+  <si>
+    <t>Cương</t>
+  </si>
+  <si>
+    <t>Phạm An Cương</t>
+  </si>
+  <si>
+    <t>phamacuong@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Long</t>
+  </si>
+  <si>
+    <t>nguyenhoanglong@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>Bộ môn Tin học Trắc địa</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Khánh</t>
+  </si>
+  <si>
+    <t>nguyenquangkhanh@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Trung</t>
+  </si>
+  <si>
+    <t>Chuyên</t>
+  </si>
+  <si>
+    <t>Trần Trung Chuyên</t>
+  </si>
+  <si>
+    <t>trantrungchuyen@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai Dung</t>
+  </si>
+  <si>
+    <t>nguyenthimaidung@humg.edu.vn</t>
+  </si>
+  <si>
+    <t>0806-02</t>
+  </si>
+  <si>
+    <t>0806-03</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
     <t>0801-01</t>
   </si>
   <si>
-    <t>Dương Thị Hiền</t>
-  </si>
-  <si>
-    <t>Thanh</t>
-  </si>
-  <si>
-    <t>Dương Thị Hiền Thanh</t>
-  </si>
-  <si>
-    <t>duongthihienthanh@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0806</t>
-  </si>
-  <si>
-    <t>Bộ môn Tin học Kinh tế</t>
+    <t>0801-02</t>
+  </si>
+  <si>
+    <t>0801-03</t>
+  </si>
+  <si>
+    <t>0801-04</t>
+  </si>
+  <si>
+    <t>0801-05</t>
+  </si>
+  <si>
+    <t>0801-06</t>
+  </si>
+  <si>
+    <t>0801-07</t>
+  </si>
+  <si>
+    <t>0801-08</t>
+  </si>
+  <si>
+    <t>0802-01</t>
+  </si>
+  <si>
+    <t>0802-02</t>
+  </si>
+  <si>
+    <t>0802-03</t>
+  </si>
+  <si>
+    <t>0802-04</t>
+  </si>
+  <si>
+    <t>0802-05</t>
+  </si>
+  <si>
+    <t>0803-01</t>
+  </si>
+  <si>
+    <t>0803-02</t>
+  </si>
+  <si>
+    <t>0803-03</t>
+  </si>
+  <si>
+    <t>0803-04</t>
+  </si>
+  <si>
+    <t>0804-01</t>
+  </si>
+  <si>
+    <t>0804-02</t>
+  </si>
+  <si>
+    <t>0804-03</t>
+  </si>
+  <si>
+    <t>0804-04</t>
   </si>
   <si>
     <t>0805-01</t>
   </si>
   <si>
-    <t>Lê Thanh</t>
-  </si>
-  <si>
-    <t>Huệ</t>
-  </si>
-  <si>
-    <t>Lê Thanh Huệ</t>
-  </si>
-  <si>
-    <t>lethanhhue@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0803-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế</t>
-  </si>
-  <si>
-    <t>Bình</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Bình</t>
-  </si>
-  <si>
-    <t>nguyenthebinh@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0808-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Thu</t>
-  </si>
-  <si>
-    <t>Hằng</t>
-  </si>
-  <si>
-    <t>Nguyễn Thu Hằng</t>
-  </si>
-  <si>
-    <t>nguyenthuhang@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0802-01</t>
-  </si>
-  <si>
-    <t>Phạm Quang</t>
-  </si>
-  <si>
-    <t>Hiển</t>
-  </si>
-  <si>
-    <t>Phạm Quang Hiển</t>
-  </si>
-  <si>
-    <t>phamquanghien@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0804-01</t>
-  </si>
-  <si>
-    <t>Phạm Thị</t>
-  </si>
-  <si>
-    <t>Nguyệt</t>
-  </si>
-  <si>
-    <t>Phạm Thị Nguyệt</t>
-  </si>
-  <si>
-    <t>phamthinguyet@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0806-01</t>
-  </si>
-  <si>
-    <t>Võ Thị Thu</t>
-  </si>
-  <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t>Võ Thị Thu Trang</t>
-  </si>
-  <si>
-    <t>vothithutrang@humg.edu.vn</t>
+    <t>0805-02</t>
+  </si>
+  <si>
+    <t>0805-03</t>
+  </si>
+  <si>
+    <t>0805-04</t>
+  </si>
+  <si>
+    <t>0805-05</t>
   </si>
   <si>
     <t>0807-01</t>
   </si>
   <si>
-    <t>Vũ Thị Kim</t>
-  </si>
-  <si>
-    <t>Liên</t>
-  </si>
-  <si>
-    <t>Vũ Thị Kim Liên</t>
-  </si>
-  <si>
-    <t>vuthikimlien@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0809-01</t>
-  </si>
-  <si>
-    <t>Hoàng Anh</t>
-  </si>
-  <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>Hoàng Anh Đức</t>
-  </si>
-  <si>
-    <t>hoanganhduc@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0801</t>
-  </si>
-  <si>
-    <t>Bộ môn Khoa học máy tính</t>
-  </si>
-  <si>
-    <t>0810-01</t>
-  </si>
-  <si>
-    <t>Lê Văn</t>
-  </si>
-  <si>
-    <t>Ngọc</t>
-  </si>
-  <si>
-    <t>Lê Văn Ngọc</t>
-  </si>
-  <si>
-    <t>levanngoc@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0811-01</t>
-  </si>
-  <si>
-    <t>Lê Hồng</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
-    <t>Lê Hồng Anh</t>
-  </si>
-  <si>
-    <t>lehonganh@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>0813-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy</t>
-  </si>
-  <si>
-    <t>Huy</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Huy</t>
-  </si>
-  <si>
-    <t>nguyenduyhuy@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0814-01</t>
-  </si>
-  <si>
-    <t>Hưng</t>
-  </si>
-  <si>
-    <t>Lê Văn Hưng</t>
-  </si>
-  <si>
-    <t>levanghung@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0815-01</t>
-  </si>
-  <si>
-    <t>Lộc</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Lộc</t>
-  </si>
-  <si>
-    <t>nguyentheloc@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>Bộ môn Công Nghệ phầm mềm</t>
-  </si>
-  <si>
-    <t>0816-01</t>
-  </si>
-  <si>
-    <t>Phạm Văn</t>
-  </si>
-  <si>
-    <t>Đồng</t>
-  </si>
-  <si>
-    <t>Phạm Văn Đồng</t>
-  </si>
-  <si>
-    <t>phamvandong@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0817-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hữu</t>
-  </si>
-  <si>
-    <t>Phương</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hữu Phương</t>
-  </si>
-  <si>
-    <t>nguyenthihuuphuong@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0818-01</t>
-  </si>
-  <si>
-    <t>Hồ Thị Thảo</t>
-  </si>
-  <si>
-    <t>Hồ Thị Thảo Trang</t>
-  </si>
-  <si>
-    <t>hothithaotrang@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0819-01</t>
-  </si>
-  <si>
-    <t>Diêm Công</t>
-  </si>
-  <si>
-    <t>Hoàn</t>
-  </si>
-  <si>
-    <t>Diêm Công Hoàn</t>
-  </si>
-  <si>
-    <t>diemconghoan@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0807</t>
-  </si>
-  <si>
-    <t>Bộ môn Mạng máy tính</t>
-  </si>
-  <si>
-    <t>0820-01</t>
-  </si>
-  <si>
-    <t>Trần Thị Thu</t>
-  </si>
-  <si>
-    <t>Thúy</t>
-  </si>
-  <si>
-    <t>Trần Thị Thu Thúy</t>
-  </si>
-  <si>
-    <t>tranthithuthuy@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>Phạm Đình</t>
-  </si>
-  <si>
-    <t>Tân</t>
-  </si>
-  <si>
-    <t>Phạm Đình Tân</t>
-  </si>
-  <si>
-    <t>phamdinhtan@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0821-01</t>
-  </si>
-  <si>
-    <t>Đào Anh</t>
-  </si>
-  <si>
-    <t>Thư</t>
-  </si>
-  <si>
-    <t>Đào Anh Thư</t>
-  </si>
-  <si>
-    <t>daoanhthu@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0822-01</t>
-  </si>
-  <si>
-    <t>Đào Thị Thu</t>
-  </si>
-  <si>
-    <t>Vân</t>
-  </si>
-  <si>
-    <t>Đào Thị Thu Vân</t>
-  </si>
-  <si>
-    <t>daothithuvan@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0802</t>
-  </si>
-  <si>
-    <t>Bộ môn Hệ thống thông tin và tri thức</t>
-  </si>
-  <si>
-    <t>0823-01</t>
-  </si>
-  <si>
-    <t>Phạm Đức</t>
-  </si>
-  <si>
-    <t>Hậu</t>
-  </si>
-  <si>
-    <t>Phạm Đức Hậu</t>
-  </si>
-  <si>
-    <t>phamduchau@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0824-01</t>
-  </si>
-  <si>
-    <t>Bùi Thị Vân</t>
-  </si>
-  <si>
-    <t>Bùi Thị Vân Anh</t>
-  </si>
-  <si>
-    <t>buithivananh@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0825-01</t>
-  </si>
-  <si>
-    <t>Vũ Lan</t>
-  </si>
-  <si>
-    <t>Vũ Lan Phương</t>
-  </si>
-  <si>
-    <t>vulanphuong@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0826-01</t>
-  </si>
-  <si>
-    <t>Dương Chí</t>
-  </si>
-  <si>
-    <t>Thiện</t>
-  </si>
-  <si>
-    <t>Dương Chí Thiện</t>
-  </si>
-  <si>
-    <t>duongchithien@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0827-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hải</t>
-  </si>
-  <si>
-    <t>Yến</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hải Yến</t>
-  </si>
-  <si>
-    <t>nguyenthihaiyen@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0804</t>
-  </si>
-  <si>
-    <t>Bộ môn Tin học Địa Chất</t>
-  </si>
-  <si>
-    <t>0828-01</t>
-  </si>
-  <si>
-    <t>Trương Xuân</t>
-  </si>
-  <si>
-    <t>Trương Xuân Bình</t>
-  </si>
-  <si>
-    <t>truõnguanbinh@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0829-01</t>
-  </si>
-  <si>
-    <t>Phạm An</t>
-  </si>
-  <si>
-    <t>Cương</t>
-  </si>
-  <si>
-    <t>Phạm An Cương</t>
-  </si>
-  <si>
-    <t>phamacuong@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0830-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Long</t>
-  </si>
-  <si>
-    <t>nguyenhoanglong@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0803</t>
-  </si>
-  <si>
-    <t>Bộ môn Tin học Trắc địa</t>
-  </si>
-  <si>
-    <t>0831-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang</t>
-  </si>
-  <si>
-    <t>Khánh</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Khánh</t>
-  </si>
-  <si>
-    <t>nguyenquangkhanh@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0832-01</t>
-  </si>
-  <si>
-    <t>Trần Trung</t>
-  </si>
-  <si>
-    <t>Chuyên</t>
-  </si>
-  <si>
-    <t>Trần Trung Chuyên</t>
-  </si>
-  <si>
-    <t>trantrungchuyen@humg.edu.vn</t>
-  </si>
-  <si>
-    <t>0812-01</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mai</t>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mai Dung</t>
-  </si>
-  <si>
-    <t>nguyenthimaidung@humg.edu.vn</t>
+    <t>0807-02</t>
+  </si>
+  <si>
+    <t>0807-03</t>
+  </si>
+  <si>
+    <t>0807-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,6 +609,12 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -985,13 +994,15 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1033,26 +1044,26 @@
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="8">
         <v>982537982</v>
@@ -1070,26 +1081,26 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="8">
         <v>974887788</v>
@@ -1107,26 +1118,26 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H4" s="8">
         <v>917749754</v>
@@ -1144,26 +1155,26 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="8">
         <v>986375166</v>
@@ -1181,26 +1192,26 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
+      <c r="A6" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H6" s="8">
         <v>973876072</v>
@@ -1218,26 +1229,26 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
+      <c r="A7" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H7" s="8">
         <v>904170053</v>
@@ -1255,26 +1266,26 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
+      <c r="A8" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H8" s="8">
         <v>983888601</v>
@@ -1292,26 +1303,26 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A9" s="3" t="s">
-        <v>45</v>
+      <c r="A9" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H9" s="8">
         <v>984603666</v>
@@ -1329,26 +1340,26 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
+      <c r="A10" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H10" s="8">
         <v>914775545</v>
@@ -1366,26 +1377,26 @@
       <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
+      <c r="A11" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H11" s="8">
         <v>986243482</v>
@@ -1403,26 +1414,26 @@
       <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A12" s="3" t="s">
-        <v>62</v>
+      <c r="A12" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H12" s="8">
         <v>944555232</v>
@@ -1440,26 +1451,26 @@
       <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A13" s="3" t="s">
-        <v>68</v>
+      <c r="A13" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H13" s="8">
         <v>966219991</v>
@@ -1477,26 +1488,26 @@
       <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A14" s="3" t="s">
-        <v>73</v>
+      <c r="A14" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H14" s="9">
         <v>833665555</v>
@@ -1514,26 +1525,26 @@
       <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A15" s="3" t="s">
-        <v>77</v>
+      <c r="A15" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H15" s="9">
         <v>822685555</v>
@@ -1551,26 +1562,26 @@
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A16" s="3" t="s">
-        <v>82</v>
+      <c r="A16" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H16" s="9">
         <v>357445777</v>
@@ -1588,26 +1599,26 @@
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A17" s="3" t="s">
-        <v>87</v>
+      <c r="A17" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H17" s="9">
         <v>379612345</v>
@@ -1625,26 +1636,26 @@
       <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A18" s="3" t="s">
-        <v>92</v>
+      <c r="A18" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H18" s="9">
         <v>343650033</v>
@@ -1662,26 +1673,26 @@
       <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A19" s="3" t="s">
-        <v>96</v>
+      <c r="A19" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H19" s="9">
         <v>343650034</v>
@@ -1699,26 +1710,26 @@
       <c r="S19" s="5"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A20" s="3" t="s">
-        <v>103</v>
+      <c r="A20" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H20" s="9">
         <v>343650035</v>
@@ -1736,26 +1747,26 @@
       <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A21" s="3" t="s">
-        <v>103</v>
+      <c r="A21" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H21" s="9">
         <v>343650036</v>
@@ -1773,26 +1784,26 @@
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A22" s="3" t="s">
-        <v>112</v>
+      <c r="A22" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="H22" s="9">
         <v>343650037</v>
@@ -1810,26 +1821,26 @@
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A23" s="3" t="s">
-        <v>117</v>
+      <c r="A23" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H23" s="9">
         <v>343650038</v>
@@ -1847,26 +1858,26 @@
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A24" s="3" t="s">
-        <v>124</v>
+      <c r="A24" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H24" s="9">
         <v>343650039</v>
@@ -1884,26 +1895,26 @@
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
+      <c r="A25" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H25" s="9">
         <v>343650040</v>
@@ -1921,26 +1932,26 @@
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A26" s="3" t="s">
-        <v>133</v>
+      <c r="A26" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H26" s="9">
         <v>343650041</v>
@@ -1958,26 +1969,26 @@
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A27" s="3" t="s">
-        <v>137</v>
+      <c r="A27" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H27" s="9">
         <v>343650042</v>
@@ -1995,26 +2006,26 @@
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A28" s="3" t="s">
-        <v>142</v>
+      <c r="A28" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H28" s="9">
         <v>343650043</v>
@@ -2032,26 +2043,26 @@
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A29" s="3" t="s">
-        <v>149</v>
+      <c r="A29" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H29" s="9">
         <v>343650044</v>
@@ -2069,26 +2080,26 @@
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A30" s="3" t="s">
-        <v>153</v>
+      <c r="A30" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H30" s="9">
         <v>343650045</v>
@@ -2106,26 +2117,26 @@
       <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A31" s="3" t="s">
-        <v>158</v>
+      <c r="A31" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="H31" s="9">
         <v>343650046</v>
@@ -2143,26 +2154,26 @@
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A32" s="3" t="s">
-        <v>165</v>
+      <c r="A32" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="H32" s="9">
         <v>343650047</v>
@@ -2180,26 +2191,26 @@
       <c r="S32" s="5"/>
     </row>
     <row r="33" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A33" s="3" t="s">
-        <v>170</v>
+      <c r="A33" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="H33" s="9">
         <v>343650048</v>
@@ -2217,26 +2228,26 @@
       <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" s="1" customFormat="1" ht="15.6">
-      <c r="A34" s="3" t="s">
-        <v>175</v>
+      <c r="A34" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="H34" s="8">
         <v>912644484</v>
@@ -2254,6 +2265,7 @@
       <c r="S34" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="mailto:duongthihienthanh@humg.edu.vn" xr:uid="{C37D38D4-BBB0-4E01-BA7D-BD55A723F328}"/>
     <hyperlink ref="E3" r:id="rId2" display="mailto:lethanhhue@humg.edu.vn" xr:uid="{808C6AC2-0AF2-467A-9636-B31D1AFB15F6}"/>
